--- a/Experimental stimulus_실험용_수정본7.xlsx
+++ b/Experimental stimulus_실험용_수정본7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민서\Desktop\eye-tracking 수정본 8-6\eye-tracking-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\eye-tracking 수정본 8-9\eye-tracking-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2765DF2D-6C9F-4EDE-8539-D78DE6EEDC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C484CBC-54DD-4231-850E-51A26C71E4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="468" windowWidth="12228" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1032,10 +1035,6 @@
   </si>
   <si>
     <t>하윤은 꿈속에서 얼음을 식히며 활기차게 가르쳤다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나린은 따뜻한 물속에서 그림자의 잎을 잘랐다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1840,6 +1839,10 @@
   </si>
   <si>
     <t>예림은 컴퓨터 화면을 마우스를 이용해 스크롤했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나린은 따뜻한 물속에서 그림자의 소리를 잘랐다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2202,12 +2205,12 @@
       <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2402,18 +2405,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2427,13 +2430,13 @@
         <v>147</v>
       </c>
       <c r="F1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" t="s">
         <v>242</v>
       </c>
-      <c r="G1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2450,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2473,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2496,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2519,18 +2522,18 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -2542,13 +2545,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2565,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2588,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2611,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2634,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2657,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2680,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2703,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2726,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2749,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2772,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2795,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2818,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2841,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2864,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2887,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2910,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2933,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2956,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2979,13 +2982,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3002,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3025,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3048,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3071,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3094,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3117,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3140,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3163,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3186,18 +3189,18 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -3209,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3232,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3255,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3278,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3301,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3324,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3347,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3370,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3393,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3416,13 +3419,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3439,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3462,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3485,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3508,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3531,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3554,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3577,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3600,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3623,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3646,13 +3649,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3669,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3692,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3715,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3738,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3761,13 +3764,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3784,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3807,13 +3810,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3830,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G62">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3853,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3876,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3899,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3922,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3945,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3968,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3991,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4014,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4037,13 +4040,13 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4060,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G72">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4083,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4106,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4129,13 +4132,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4152,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4175,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4198,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4221,13 +4224,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4244,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4267,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G81">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4290,13 +4293,13 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G82">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4313,18 +4316,18 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G83">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -4336,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G84">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4359,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G85">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4382,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4405,13 +4408,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G87">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4428,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G88">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4451,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G89">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4474,13 +4477,13 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G90">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4497,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G91">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4520,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G92">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4543,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G93">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4566,13 +4569,13 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G94">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4589,13 +4592,13 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4612,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4635,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4658,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4681,13 +4684,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4704,13 +4707,13 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4727,13 +4730,13 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G101">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4750,13 +4753,13 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G102">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4773,13 +4776,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G103">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4796,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4819,13 +4822,13 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4842,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4865,13 +4868,13 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4888,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4911,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4934,13 +4937,13 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4957,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G111">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4980,13 +4983,13 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G112">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5003,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G113">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5026,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G114">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5049,13 +5052,13 @@
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G115">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5072,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G116">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5095,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G117">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5118,13 +5121,13 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G118">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5141,13 +5144,13 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G119">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5164,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G120">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5187,13 +5190,13 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G121">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5210,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G122">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5233,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G123">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5256,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G124">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5279,13 +5282,13 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G125">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5302,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5325,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5348,13 +5351,13 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5371,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G129">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5394,13 +5397,13 @@
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5417,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G131">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5440,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5463,13 +5466,13 @@
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G133">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5486,13 +5489,13 @@
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5509,18 +5512,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G135">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -5532,18 +5535,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -5555,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5578,13 +5581,13 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5601,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5624,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5647,13 +5650,13 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5670,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G142">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5693,13 +5696,13 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G143">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5716,18 +5719,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G144">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -5739,13 +5742,13 @@
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G145">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5762,13 +5765,13 @@
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G146">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5785,13 +5788,13 @@
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G147">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5808,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G148">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5831,13 +5834,13 @@
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G149">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5854,13 +5857,13 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G150">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5877,13 +5880,13 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G151">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5900,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G152">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5923,13 +5926,13 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G153">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5946,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G154">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5969,13 +5972,13 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G155">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5992,13 +5995,13 @@
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G156">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6015,13 +6018,13 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G157">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6038,13 +6041,13 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6061,13 +6064,13 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G159">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6084,13 +6087,13 @@
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G160">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6107,13 +6110,13 @@
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G161">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6130,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G162">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6153,13 +6156,13 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G163">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6176,13 +6179,13 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G164">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6199,13 +6202,13 @@
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G165">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6222,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G166">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6245,13 +6248,13 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G167">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6268,13 +6271,13 @@
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6291,13 +6294,13 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G169">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6314,13 +6317,13 @@
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G170">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6337,13 +6340,13 @@
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G171">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6360,13 +6363,13 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G172">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6383,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G173">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6406,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G174">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6429,13 +6432,13 @@
         <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G175">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6452,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G176">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6475,13 +6478,13 @@
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G177">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6498,13 +6501,13 @@
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G178">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6521,13 +6524,13 @@
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G179">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6544,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G180">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6567,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G181">
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6590,13 +6593,13 @@
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G182">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6613,13 +6616,13 @@
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G183">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6636,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G184">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6659,13 +6662,13 @@
         <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G185">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6682,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G186">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6705,13 +6708,13 @@
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G187">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6849,7 +6852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6918,7 +6921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6941,7 +6944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7148,7 +7151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7171,7 +7174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7194,12 +7197,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>18</v>
@@ -7217,7 +7220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7240,7 +7243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7286,7 +7289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7355,7 +7358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7470,12 +7473,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>18</v>
@@ -7493,7 +7496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7516,12 +7519,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>18</v>
@@ -7539,7 +7542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7562,7 +7565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
